--- a/Story Mapping.xlsx
+++ b/Story Mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>CATECHISM OF THE CATHOLIC CHURCH</t>
   </si>
@@ -24,92 +24,128 @@
     <t>ADMIN</t>
   </si>
   <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Adding New Sunday School</t>
-  </si>
-  <si>
-    <t>Adding Admin of the Sunday School</t>
-  </si>
-  <si>
-    <t>Manage Educational Details</t>
-  </si>
-  <si>
-    <t>Publishing Details of Each Programs</t>
-  </si>
-  <si>
-    <t>Result Pulication</t>
-  </si>
-  <si>
-    <t>Add Admin Details of Each Sunday School</t>
-  </si>
-  <si>
     <t>STAFF</t>
   </si>
   <si>
-    <t>Add Teachers</t>
-  </si>
-  <si>
     <t>Add Students</t>
   </si>
   <si>
-    <t>Teachers Information</t>
-  </si>
-  <si>
     <t>Students Information</t>
   </si>
   <si>
     <t>Report Generation</t>
   </si>
   <si>
-    <t>Progress Report</t>
-  </si>
-  <si>
-    <t>Result of Extra Curricular Activities</t>
-  </si>
-  <si>
     <t>Attendance Monitoring</t>
   </si>
   <si>
-    <t>Teachers</t>
-  </si>
-  <si>
-    <t>Students</t>
-  </si>
-  <si>
-    <t>Send Messages</t>
-  </si>
-  <si>
-    <t>Parents</t>
-  </si>
-  <si>
     <t>Group Division</t>
   </si>
   <si>
     <t>Leave Requisition</t>
   </si>
   <si>
-    <t>Audit Logs</t>
-  </si>
-  <si>
-    <t>PARENTS</t>
-  </si>
-  <si>
-    <t>View Notification</t>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Manage Examination Details</t>
+  </si>
+  <si>
+    <t>Send Examination Notifications to Teachers</t>
+  </si>
+  <si>
+    <t>Send Examination Notifications to Parents</t>
+  </si>
+  <si>
+    <t>Manage Extra Carricular Activities</t>
+  </si>
+  <si>
+    <t>Notifying Details of Each Programs</t>
+  </si>
+  <si>
+    <t>send Notifications to Teachers</t>
+  </si>
+  <si>
+    <t>Send Notifications to Parents</t>
+  </si>
+  <si>
+    <t>Rank List Publication</t>
+  </si>
+  <si>
+    <t>Leave Confirmation</t>
+  </si>
+  <si>
+    <t>Publishing Points of Activities Based on Groups</t>
+  </si>
+  <si>
+    <t>Granting the request for teachers registration</t>
+  </si>
+  <si>
+    <t>Generate Reports</t>
+  </si>
+  <si>
+    <t>Send Reports to Admin</t>
+  </si>
+  <si>
+    <t>Students Attendance</t>
+  </si>
+  <si>
+    <t>To Admin</t>
+  </si>
+  <si>
+    <t>From Parents</t>
+  </si>
+  <si>
+    <t>View Rank List</t>
+  </si>
+  <si>
+    <t>Result for All Classes</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>To Teachers</t>
+  </si>
+  <si>
+    <t>Approve Leave Rquest from Teachers</t>
+  </si>
+  <si>
+    <t>Manage Details of Group Division</t>
+  </si>
+  <si>
+    <t>Manage Details of Mission League</t>
+  </si>
+  <si>
+    <t>Manage Details of Thirubalasakhyam</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>View Notifications From Admin</t>
+  </si>
+  <si>
+    <t>View Examination Details</t>
+  </si>
+  <si>
+    <t>View Group Division Lists</t>
   </si>
   <si>
     <t>View Reports</t>
   </si>
   <si>
-    <t>Students Progress Reports</t>
+    <t>View Dates of Exams</t>
+  </si>
+  <si>
+    <t>Parent Information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +182,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -181,7 +211,6 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N32"/>
+  <dimension ref="B1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,7 +532,7 @@
       <c r="N1" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="15.75">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
@@ -517,7 +546,7 @@
     </row>
     <row r="4" spans="2:14" ht="15.75">
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -527,44 +556,43 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:14" ht="15.75">
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:14" ht="15.75">
-      <c r="D6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:14" ht="15.75">
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:14" ht="15.75">
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -572,7 +600,7 @@
     </row>
     <row r="9" spans="2:14" ht="15.75">
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -582,124 +610,215 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:14" ht="15.75">
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:14" ht="15.75">
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:14" ht="15.75">
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75">
       <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:14" ht="15.75">
-      <c r="D14" s="3" t="s">
-        <v>12</v>
+      <c r="D14" s="3"/>
+      <c r="F14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75">
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75">
-      <c r="D16" s="3" t="s">
-        <v>14</v>
+      <c r="D16" s="3"/>
+      <c r="F16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="F18" t="s">
-        <v>16</v>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75">
+      <c r="D18" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75">
       <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="D22" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75">
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75">
+      <c r="D22" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="F23" t="s">
-        <v>21</v>
+      <c r="D23" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="F24" t="s">
-        <v>18</v>
+      <c r="D24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="F27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="D26" t="s">
+    <row r="28" spans="2:6">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="F29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="D27" t="s">
+    <row r="30" spans="2:6">
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="F31" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="F30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="D31" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="D32" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75">
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6">
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="F50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6">
+      <c r="D51" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
